--- a/pytest_project/excel_data/Discount/discount.xlsx
+++ b/pytest_project/excel_data/Discount/discount.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="支持优惠邮箱" sheetId="10" r:id="rId1"/>
-    <sheet name="提交反馈信息" sheetId="13" r:id="rId2"/>
-    <sheet name="步骤介绍" sheetId="14" r:id="rId3"/>
+    <sheet name="步骤介绍" sheetId="14" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>@ac.uk</t>
   </si>
@@ -135,33 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please type your student email.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123@123.123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please check out if your student email on the below list.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your applying message has been sent successfully, we will contact you asap!</t>
-  </si>
-  <si>
-    <t>123@ac.uk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>步骤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,15 +152,15 @@
     <t>step-3</t>
   </si>
   <si>
-    <t>Submit your email in the box below.</t>
+    <t>Send us an email to support@imymac.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>We’ll review your email and verify, then send you a coupon code.</t>
+    <t>We'll review your email and verify, then send you a coupon code.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Apply your discount with the coupon code after choosing desired product in https://www.imymac.com/store/</t>
+    <t>Apply your discount with the coupon code after choosing a desired product.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,7 +168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,14 +181,6 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -237,18 +201,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -528,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -745,59 +706,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -812,34 +720,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
